--- a/logs.xlsx
+++ b/logs.xlsx
@@ -5,29 +5,176 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AI project\Byzantine-Robust Decentralized Veterinary Surveillance\Byzantine-Robust Decentralized Veterinary Surveillance\Byzantine-Robust-Decentralized-Veterinary-Surveillance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AI project\A Comparative Analysis of Custom Neural Architectures for Multiclass Livestock Classification\A-Comparative-Analysis-of-Custom-Neural-Architectures-for-Multiclass-Livestock-Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C529D1-BDD5-4F8D-BC64-C33B5775582F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2A10CD-AFE3-4F92-8818-E7581667F249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="CRNN " sheetId="6" r:id="rId1"/>
+    <sheet name="Vit" sheetId="7" r:id="rId2"/>
+    <sheet name="GCNN" sheetId="8" r:id="rId3"/>
+    <sheet name="EDA" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+  <si>
+    <t>CRNN Training Performance Table</t>
+  </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>Train Loss</t>
+  </si>
+  <si>
+    <t>Train Acc (%)</t>
+  </si>
+  <si>
+    <t>Val Loss</t>
+  </si>
+  <si>
+    <t>Val Acc (%)</t>
+  </si>
+  <si>
+    <t>Final Evaluation Summary</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Total Test Images</t>
+  </si>
+  <si>
+    <t>Final Test Accuracy</t>
+  </si>
+  <si>
+    <t>Best Val Accuracy</t>
+  </si>
+  <si>
+    <t>95.90% (Epoch 23)</t>
+  </si>
+  <si>
+    <t>Vit Training Performance Table</t>
+  </si>
+  <si>
+    <t>Performance Value</t>
+  </si>
+  <si>
+    <t>Best Validation Accuracy</t>
+  </si>
+  <si>
+    <t>85.69% (at Epoch 22)</t>
+  </si>
+  <si>
+    <t>Best Validation Loss</t>
+  </si>
+  <si>
+    <t>0.4690 (at Epoch 18)</t>
+  </si>
+  <si>
+    <t>GCNN Training Performance Table</t>
+  </si>
+  <si>
+    <t>72.97% (Epoch 24)</t>
+  </si>
+  <si>
+    <t>0.6286 (Epoch 24)</t>
+  </si>
+  <si>
+    <t>Overall Dataset Instance Distribution</t>
+  </si>
+  <si>
+    <t>Class ID</t>
+  </si>
+  <si>
+    <t>Animal Class</t>
+  </si>
+  <si>
+    <t>Total Instances</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>Class_4 (Minority)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Dataset Split Overview</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Total Images</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Class Distribution per Split</t>
+  </si>
+  <si>
+    <t>Class_4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,8 +202,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -72,6 +235,3143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EDA!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Instances</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>EDA!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pig</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sheep</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Horse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Class_4 (Minority)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EDA!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>4146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>12388</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>5239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78EA-492D-A895-32DED5237AB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1897020352"/>
+        <c:axId val="1897019392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1897020352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1897019392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1897019392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1897020352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Dataset Split Overview</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EDA!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Images</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>EDA!$F$3:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Valid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EDA!$G$3:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BE6-4A40-8593-4611BA82B37B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EDA!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Instances</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>EDA!$F$3:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Valid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EDA!$H$3:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9BE6-4A40-8593-4611BA82B37B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1130020992"/>
+        <c:axId val="1130027232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1130020992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1130027232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1130027232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1130020992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Class Distribution per Split</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EDA!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>EDA!$M$2:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pig</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sheep</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Horse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Class_4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EDA!$M$3:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>3259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>9165</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>3627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC04-40D2-9029-A01CCF2C2F48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EDA!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>EDA!$M$2:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pig</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sheep</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Horse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Class_4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EDA!$M$4:$Q$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>1097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC04-40D2-9029-A01CCF2C2F48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EDA!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>EDA!$M$2:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pig</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sheep</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Horse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Class_4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EDA!$M$5:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DC04-40D2-9029-A01CCF2C2F48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1887519488"/>
+        <c:axId val="1887519968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1887519488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1887519968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1887519968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1887519488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93165D3F-C47E-615A-4D11-893481107013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C35F17F-9AAB-2CAA-051F-AA97DE9596E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>944880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0B3270-2D41-2EEA-5B16-D5D5E914AA70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,12 +3637,1783 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ABB16E-ECB3-4434-BF21-5C04412F35A3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.54959999999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>78.59</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.47920000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>80.08</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.33189999999999997</v>
+      </c>
+      <c r="C4" s="1">
+        <v>87.45</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.32569999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>85.86</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.94489999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="C5" s="1">
+        <v>89.79</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.32519999999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>87.03</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.24310000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>90.98</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>86.61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.1966</v>
+      </c>
+      <c r="C7" s="1">
+        <v>92.25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.2369</v>
+      </c>
+      <c r="E7" s="1">
+        <v>91.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.18290000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>93.03</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.1661</v>
+      </c>
+      <c r="C9" s="1">
+        <v>94</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>91.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.16259999999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>94.25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="E10" s="1">
+        <v>90.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>96.24</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.27110000000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>91.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>96.53</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>93.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>96.67</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.2268</v>
+      </c>
+      <c r="E13" s="1">
+        <v>92.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>95.07</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.18859999999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>93.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>97.68</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.1694</v>
+      </c>
+      <c r="E15" s="1">
+        <v>94.56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>97.95</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.2359</v>
+      </c>
+      <c r="E16" s="1">
+        <v>93.47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>97.27</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="E17" s="1">
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>97.19</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <v>93.56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>98.75</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.20569999999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>94.81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>99.05</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.20949999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>98.56</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.2162</v>
+      </c>
+      <c r="E21" s="1">
+        <v>94.23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>98.71</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>93.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>99.03</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.2109</v>
+      </c>
+      <c r="E23" s="1">
+        <v>95.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>98.93</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.17430000000000001</v>
+      </c>
+      <c r="E24" s="1">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.29E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>99.28</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="E25" s="1">
+        <v>95.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>97.84</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.29909999999999998</v>
+      </c>
+      <c r="E26" s="1">
+        <v>93.31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>98.19</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.23430000000000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>93.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135B2EE5-20FF-46F8-B028-AE4141A5E14D}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="22.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.1696</v>
+      </c>
+      <c r="C3" s="1">
+        <v>52.04</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.93610000000000004</v>
+      </c>
+      <c r="E3" s="1">
+        <v>66.44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.83860000000000001</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="C4" s="1">
+        <v>61.89</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.87809999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>66.28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.79720000000000002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>69.709999999999994</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.72140000000000004</v>
+      </c>
+      <c r="E5" s="1">
+        <v>67.78</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>73.95</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.86229999999999996</v>
+      </c>
+      <c r="E6" s="1">
+        <v>65.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.62690000000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.63470000000000004</v>
+      </c>
+      <c r="E7" s="1">
+        <v>73.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.59589999999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>77.13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="E8" s="1">
+        <v>69.709999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.55549999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>78.39</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.67949999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>71.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="C10" s="1">
+        <v>79.72</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.60329999999999995</v>
+      </c>
+      <c r="E10" s="1">
+        <v>74.900000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.50380000000000003</v>
+      </c>
+      <c r="C11" s="1">
+        <v>80.44</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="E11" s="1">
+        <v>78.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.499</v>
+      </c>
+      <c r="C12" s="1">
+        <v>80.709999999999994</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.55349999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>77.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.41980000000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>83.5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="E13" s="1">
+        <v>81.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.4143</v>
+      </c>
+      <c r="C14" s="1">
+        <v>84.45</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.5171</v>
+      </c>
+      <c r="E14" s="1">
+        <v>80.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>86.77</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.48670000000000002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>83.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="C16" s="1">
+        <v>87.26</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.52070000000000005</v>
+      </c>
+      <c r="E16" s="1">
+        <v>82.93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="C17" s="1">
+        <v>88.39</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.51629999999999998</v>
+      </c>
+      <c r="E17" s="1">
+        <v>83.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.2767</v>
+      </c>
+      <c r="C18" s="1">
+        <v>90.08</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.73609999999999998</v>
+      </c>
+      <c r="E18" s="1">
+        <v>79.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.29260000000000003</v>
+      </c>
+      <c r="C19" s="1">
+        <v>90.06</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.47239999999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>82.43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.25269999999999998</v>
+      </c>
+      <c r="C20" s="1">
+        <v>91.23</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="E20" s="1">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>93.55</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.9073</v>
+      </c>
+      <c r="E21" s="1">
+        <v>81.34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.2429</v>
+      </c>
+      <c r="C22" s="1">
+        <v>91.7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.48949999999999999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>84.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.22989999999999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>91.84</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.6018</v>
+      </c>
+      <c r="E23" s="1">
+        <v>75.650000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="C24" s="1">
+        <v>91.08</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E24" s="1">
+        <v>85.69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="C25" s="1">
+        <v>93.06</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.47170000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>85.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.2034</v>
+      </c>
+      <c r="C26" s="1">
+        <v>93.51</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.60950000000000004</v>
+      </c>
+      <c r="E26" s="1">
+        <v>83.51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.16370000000000001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>94.66</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.57620000000000005</v>
+      </c>
+      <c r="E27" s="1">
+        <v>84.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DC20BB-E5BD-4E86-B7A1-05790F987CD5}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.2242</v>
+      </c>
+      <c r="C3" s="1">
+        <v>46.81</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.1214</v>
+      </c>
+      <c r="E3" s="1">
+        <v>52.13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.72050000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.0250999999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>58.89</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="E4" s="1">
+        <v>58.83</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <v>61.95</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>55.31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.93869999999999998</v>
+      </c>
+      <c r="C6" s="1">
+        <v>62.69</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="E6" s="1">
+        <v>58.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.88180000000000003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>65.540000000000006</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>60.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.86170000000000002</v>
+      </c>
+      <c r="C8" s="1">
+        <v>66.34</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="E8" s="1">
+        <v>60.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.87280000000000002</v>
+      </c>
+      <c r="C9" s="1">
+        <v>65.650000000000006</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="E9" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.79079999999999995</v>
+      </c>
+      <c r="C10" s="1">
+        <v>70.540000000000006</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.78620000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>68.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.76529999999999998</v>
+      </c>
+      <c r="C11" s="1">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.81659999999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>65.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.73970000000000002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>71.930000000000007</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.94210000000000005</v>
+      </c>
+      <c r="E12" s="1">
+        <v>63.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>72.34</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.71870000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>69.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.70909999999999995</v>
+      </c>
+      <c r="C14" s="1">
+        <v>72.45</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="E14" s="1">
+        <v>64.849999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="C15" s="1">
+        <v>70.72</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="E15" s="1">
+        <v>67.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="C16" s="1">
+        <v>72.760000000000005</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.70269999999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>69.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="C17" s="1">
+        <v>73.8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.79469999999999996</v>
+      </c>
+      <c r="E17" s="1">
+        <v>69.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="C18" s="1">
+        <v>73.86</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.68620000000000003</v>
+      </c>
+      <c r="E18" s="1">
+        <v>71.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.64610000000000001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>75.08</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.7167</v>
+      </c>
+      <c r="E19" s="1">
+        <v>69.790000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.63280000000000003</v>
+      </c>
+      <c r="C20" s="1">
+        <v>75.36</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="E20" s="1">
+        <v>71.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.64570000000000005</v>
+      </c>
+      <c r="C21" s="1">
+        <v>75.2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.7107</v>
+      </c>
+      <c r="E21" s="1">
+        <v>70.040000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="C22" s="1">
+        <v>75.55</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="E22" s="1">
+        <v>71.63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="C23" s="1">
+        <v>75.959999999999994</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.63149999999999995</v>
+      </c>
+      <c r="E23" s="1">
+        <v>72.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.61209999999999998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>75.92</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="E24" s="1">
+        <v>72.13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="C25" s="1">
+        <v>74.05</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.75280000000000002</v>
+      </c>
+      <c r="E25" s="1">
+        <v>69.87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.6048</v>
+      </c>
+      <c r="C26" s="1">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.62860000000000005</v>
+      </c>
+      <c r="E26" s="1">
+        <v>72.97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.62470000000000003</v>
+      </c>
+      <c r="C27" s="1">
+        <v>75.760000000000005</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.62960000000000005</v>
+      </c>
+      <c r="E27" s="1">
+        <v>72.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEDD01A-4602-4E7E-A2F4-79819DB85427}">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="5.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="4"/>
+      <c r="L1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4146</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4867</v>
+      </c>
+      <c r="H3" s="6">
+        <v>16457</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="6">
+        <v>3259</v>
+      </c>
+      <c r="N3" s="1">
+        <v>388</v>
+      </c>
+      <c r="O3" s="6">
+        <v>9165</v>
+      </c>
+      <c r="P3" s="6">
+        <v>3627</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1">
+        <v>545</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1195</v>
+      </c>
+      <c r="H4" s="6">
+        <v>4012</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="1">
+        <v>663</v>
+      </c>
+      <c r="N4" s="1">
+        <v>110</v>
+      </c>
+      <c r="O4" s="6">
+        <v>2141</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1097</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6">
+        <v>12388</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1">
+        <v>508</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1873</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="1">
+        <v>224</v>
+      </c>
+      <c r="N5" s="1">
+        <v>47</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1082</v>
+      </c>
+      <c r="P5" s="1">
+        <v>515</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5239</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6570</v>
+      </c>
+      <c r="H6" s="6">
+        <v>22342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="6">
+        <f>SUM(C3:C7)</f>
+        <v>22342</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AI project\A Comparative Analysis of Custom Neural Architectures for Multiclass Livestock Classification\A-Comparative-Analysis-of-Custom-Neural-Architectures-for-Multiclass-Livestock-Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2A10CD-AFE3-4F92-8818-E7581667F249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33F02B5-AFB6-4134-B350-83ECAB64B7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRNN " sheetId="6" r:id="rId1"/>
     <sheet name="Vit" sheetId="7" r:id="rId2"/>
     <sheet name="GCNN" sheetId="8" r:id="rId3"/>
     <sheet name="EDA" sheetId="9" r:id="rId4"/>
+    <sheet name="Final Comparative Results Table" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>CRNN Training Performance Table</t>
   </si>
@@ -160,6 +161,42 @@
   <si>
     <t>Class_4</t>
   </si>
+  <si>
+    <t>Final Comparative Results Table</t>
+  </si>
+  <si>
+    <t>Model Architecture</t>
+  </si>
+  <si>
+    <t>Final Test Acc (%)</t>
+  </si>
+  <si>
+    <t>Best Val Acc (%)</t>
+  </si>
+  <si>
+    <t>Best Val Loss</t>
+  </si>
+  <si>
+    <t>Key Structural Feature</t>
+  </si>
+  <si>
+    <t>CRNN</t>
+  </si>
+  <si>
+    <t>CNN Features + RNN Sequence</t>
+  </si>
+  <si>
+    <t>ViT</t>
+  </si>
+  <si>
+    <t>Self-Attention Mechanism</t>
+  </si>
+  <si>
+    <t>GCNN</t>
+  </si>
+  <si>
+    <t>Spatial Graph Connectivity</t>
+  </si>
 </sst>
 </file>
 
@@ -210,14 +247,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -694,15 +731,15 @@
             <c:numRef>
               <c:f>EDA!$G$3:$G$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="#,##0">
                   <c:v>4867</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1195</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2" formatCode="#,##0">
                   <c:v>508</c:v>
                 </c:pt>
               </c:numCache>
@@ -817,15 +854,15 @@
             <c:numRef>
               <c:f>EDA!$H$3:$H$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="#,##0">
                   <c:v>16457</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4012</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="#,##0">
                   <c:v>1873</c:v>
                 </c:pt>
               </c:numCache>
@@ -1178,18 +1215,18 @@
             <c:numRef>
               <c:f>EDA!$M$3:$Q$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="#,##0">
+                <c:pt idx="0">
                   <c:v>3259</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>388</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="#,##0">
+                <c:pt idx="2">
                   <c:v>9165</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="#,##0">
+                <c:pt idx="3">
                   <c:v>3627</c:v>
                 </c:pt>
                 <c:pt idx="4">
@@ -1321,10 +1358,10 @@
                 <c:pt idx="1">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="#,##0">
+                <c:pt idx="2">
                   <c:v>2141</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="#,##0">
+                <c:pt idx="3">
                   <c:v>1097</c:v>
                 </c:pt>
                 <c:pt idx="4">
@@ -1448,7 +1485,7 @@
             <c:numRef>
               <c:f>EDA!$M$5:$Q$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>224</c:v>
@@ -1456,7 +1493,7 @@
                 <c:pt idx="1">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="#,##0">
+                <c:pt idx="2">
                   <c:v>1082</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -1578,6 +1615,607 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Final Comparative Results Table</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final Comparative Results Table'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Test Acc (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Final Comparative Results Table'!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CRNN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ViT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GCNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final Comparative Results Table'!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.94489999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72050000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0408-430D-9881-F629B290BC02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final Comparative Results Table'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Best Val Acc (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Final Comparative Results Table'!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CRNN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ViT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GCNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final Comparative Results Table'!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72970000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0408-430D-9881-F629B290BC02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final Comparative Results Table'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Best Val Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Final Comparative Results Table'!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CRNN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ViT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GCNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Final Comparative Results Table'!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62860000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0408-430D-9881-F629B290BC02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1383183936"/>
+        <c:axId val="1383184416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1383183936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1383184416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1383184416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1383183936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1750,6 +2388,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3229,6 +3907,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3366,6 +4547,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE7BFC3-CC7A-AD37-E9B0-BCE2B091F9C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3640,7 +4862,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+      <selection activeCell="D22" sqref="A1:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3655,38 +4877,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3732,7 +4954,7 @@
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>0.94489999999999996</v>
       </c>
     </row>
@@ -4138,6 +5360,66 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A3:A27">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B27">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C27">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D27">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4147,7 +5429,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E3" sqref="E3:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4167,38 +5449,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4221,10 +5503,10 @@
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0.83860000000000001</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -4245,10 +5527,10 @@
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -4652,6 +5934,66 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A3:A27">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B27">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C27">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D27">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4661,7 +6003,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A3" sqref="A3:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4678,38 +6020,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4732,7 +6074,7 @@
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0.72050000000000003</v>
       </c>
     </row>
@@ -5161,6 +6503,66 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B3:B27">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C27">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D27">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E27">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5169,8 +6571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEDD01A-4602-4E7E-A2F4-79819DB85427}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5194,62 +6596,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="4"/>
-      <c r="L1" s="2" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="3"/>
+      <c r="L1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="I2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5260,34 +6662,34 @@
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>4146</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>4867</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>16457</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>3259</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="5">
         <v>388</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>9165</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>3627</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="5">
         <v>18</v>
       </c>
     </row>
@@ -5304,10 +6706,10 @@
       <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="1">
         <v>1195</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="1">
         <v>4012</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -5319,10 +6721,10 @@
       <c r="N4" s="1">
         <v>110</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="1">
         <v>2141</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="1">
         <v>1097</v>
       </c>
       <c r="Q4" s="1">
@@ -5336,34 +6738,34 @@
       <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>12388</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="5">
         <v>508</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>1873</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="5">
         <v>224</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="5">
         <v>47</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>1082</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="5">
         <v>515</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="5">
         <v>5</v>
       </c>
     </row>
@@ -5374,18 +6776,20 @@
       <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>5239</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>6570</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>22342</v>
       </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -5399,10 +6803,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <f>SUM(C3:C7)</f>
         <v>22342</v>
       </c>
@@ -5413,6 +6817,242 @@
     <mergeCell ref="L1:Q1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C3:C7">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H7">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M6">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O5">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D19492-A883-4C6B-9596-AA01FA08EA20}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.83860000000000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.8569</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.72050000000000003</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.62860000000000005</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:B5">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AI project\A Comparative Analysis of Custom Neural Architectures for Multiclass Livestock Classification\A-Comparative-Analysis-of-Custom-Neural-Architectures-for-Multiclass-Livestock-Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33F02B5-AFB6-4134-B350-83ECAB64B7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75EB47E-8870-4712-82C5-1AB06D18A5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6503,6 +6503,18 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A3:A27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B3:B27">
     <cfRule type="colorScale" priority="5">
       <colorScale>
@@ -6551,18 +6563,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A27">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6829,8 +6829,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H7">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6841,8 +6841,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G6">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="H3:H7">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6923,7 +6923,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D5"/>
+      <selection activeCell="A11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AI project\A Comparative Analysis of Custom Neural Architectures for Multiclass Livestock Classification\A-Comparative-Analysis-of-Custom-Neural-Architectures-for-Multiclass-Livestock-Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75EB47E-8870-4712-82C5-1AB06D18A5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25832457-A48D-47ED-9718-02B26EE7A620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6923,7 +6923,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:XFD1048576"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AI project\A Comparative Analysis of Custom Neural Architectures for Multiclass Livestock Classification\A-Comparative-Analysis-of-Custom-Neural-Architectures-for-Multiclass-Livestock-Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25832457-A48D-47ED-9718-02B26EE7A620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999486D4-B1C5-4E68-B667-8575CB066ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4862,7 +4862,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="A1:E27"/>
+      <selection activeCell="H4" sqref="G1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5429,7 +5429,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E27"/>
+      <selection activeCell="G1" sqref="G1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6003,7 +6003,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A27"/>
+      <selection activeCell="G1" sqref="G1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6572,7 +6572,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:Q5"/>
+      <selection activeCell="O3" sqref="L1:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6923,7 +6923,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AI project\A Comparative Analysis of Custom Neural Architectures for Multiclass Livestock Classification\A-Comparative-Analysis-of-Custom-Neural-Architectures-for-Multiclass-Livestock-Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999486D4-B1C5-4E68-B667-8575CB066ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC7F0F6-B841-4721-AE87-A24A8B9F64E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRNN " sheetId="6" r:id="rId1"/>
@@ -4861,8 +4861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ABB16E-ECB3-4434-BF21-5C04412F35A3}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="G1:H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5429,7 +5429,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H5"/>
+      <selection activeCell="G4" sqref="G1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6003,7 +6003,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H5"/>
+      <selection activeCell="H3" sqref="G1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6572,7 +6572,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="L1:Q5"/>
+      <selection activeCell="L4" sqref="L1:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6922,7 +6922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D19492-A883-4C6B-9596-AA01FA08EA20}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AI project\A Comparative Analysis of Custom Neural Architectures for Multiclass Livestock Classification\A-Comparative-Analysis-of-Custom-Neural-Architectures-for-Multiclass-Livestock-Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC7F0F6-B841-4721-AE87-A24A8B9F64E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841C5365-068A-4C30-9BA8-A2429439A941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRNN " sheetId="6" r:id="rId1"/>
@@ -4861,7 +4861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ABB16E-ECB3-4434-BF21-5C04412F35A3}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6571,8 +6571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEDD01A-4602-4E7E-A2F4-79819DB85427}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L1:Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6923,7 +6923,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:E5"/>
+      <selection activeCell="D4" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
